--- a/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Perceptual/Tadpole_ET_summary_Perceptual_250ms_NoLabels_.50-.75.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Perceptual/Tadpole_ET_summary_Perceptual_250ms_NoLabels_.50-.75.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -354,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO98"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12611,6 +12612,483 @@
       <c r="AO98" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>119</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2"/>
+      <c r="AG99" s="2"/>
+      <c r="AH99" s="2"/>
+      <c r="AI99" s="2"/>
+      <c r="AJ99" s="2"/>
+      <c r="AK99" s="2"/>
+      <c r="AL99" s="2"/>
+      <c r="AM99" s="2"/>
+      <c r="AN99" s="2"/>
+      <c r="AO99" s="2"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>133</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2">
+        <v>0</v>
+      </c>
+      <c r="S100" s="2">
+        <v>0</v>
+      </c>
+      <c r="T100" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="U100" s="2">
+        <v>0</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0</v>
+      </c>
+      <c r="W100" s="2">
+        <v>0</v>
+      </c>
+      <c r="X100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AE100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>131</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="2">
+        <v>0</v>
+      </c>
+      <c r="S101" s="2">
+        <v>0</v>
+      </c>
+      <c r="T101" s="2">
+        <v>0</v>
+      </c>
+      <c r="U101" s="2">
+        <v>0</v>
+      </c>
+      <c r="V101" s="2">
+        <v>0</v>
+      </c>
+      <c r="W101" s="2">
+        <v>0</v>
+      </c>
+      <c r="X101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>130</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102" s="2">
+        <v>0</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>0</v>
+      </c>
+      <c r="R102" s="2">
+        <v>0</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102" s="2">
+        <v>0</v>
+      </c>
+      <c r="U102" s="2">
+        <v>0</v>
+      </c>
+      <c r="V102" s="2">
+        <v>0</v>
+      </c>
+      <c r="W102" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X102" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AE102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AG102" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AH102" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="AI102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
+      <c r="AK103" s="2"/>
+      <c r="AL103" s="2"/>
+      <c r="AM103" s="2"/>
+      <c r="AN103" s="2"/>
+      <c r="AO103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
